--- a/src/Excel/output/飲食業_山形市以外.xlsx
+++ b/src/Excel/output/飲食業_山形市以外.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4ED27E-3447-45DE-97F6-660DB7F25DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB0919-06F7-4CEA-BD06-DC2950EFE510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="510" windowWidth="27675" windowHeight="18195" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="5895" yWindow="3780" windowWidth="28485" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12485,13 +12485,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12809,46 +12810,43 @@
   <dimension ref="A1:K1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13110,7 +13108,7 @@
         <v>38.425335199999999</v>
       </c>
       <c r="K10">
-        <v>140.3126656</v>
+        <v>140.31276560000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -15506,10 +15504,10 @@
         <v>85</v>
       </c>
       <c r="J92">
-        <v>38.373637199999997</v>
+        <v>38.373993347108502</v>
       </c>
       <c r="K92">
-        <v>140.2993027</v>
+        <v>140.29696798150999</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -15564,10 +15562,10 @@
         <v>85</v>
       </c>
       <c r="J94">
-        <v>38.373637199999997</v>
+        <v>38.3735689718903</v>
       </c>
       <c r="K94">
-        <v>140.2993027</v>
+        <v>140.29990910106</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -16008,7 +16006,7 @@
         <v>38.373888200000003</v>
       </c>
       <c r="K109">
-        <v>140.27493380000001</v>
+        <v>140.27503380000002</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -16063,7 +16061,7 @@
         <v>85</v>
       </c>
       <c r="J111">
-        <v>38.373888200000003</v>
+        <v>38.373988200000007</v>
       </c>
       <c r="K111">
         <v>140.27493380000001</v>
@@ -17627,10 +17625,10 @@
         <v>490</v>
       </c>
       <c r="J164">
-        <v>38.757447800000001</v>
+        <v>38.738333874899197</v>
       </c>
       <c r="K164">
-        <v>140.08874489999999</v>
+        <v>140.14995656972101</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -17714,10 +17712,10 @@
         <v>490</v>
       </c>
       <c r="J167">
-        <v>38.757447800000001</v>
+        <v>38.765076854903903</v>
       </c>
       <c r="K167">
-        <v>140.08874489999999</v>
+        <v>140.05578485414799</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
@@ -17772,10 +17770,10 @@
         <v>490</v>
       </c>
       <c r="J169">
-        <v>38.757447800000001</v>
+        <v>38.7668350505703</v>
       </c>
       <c r="K169">
-        <v>140.08874489999999</v>
+        <v>140.05001008486099</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -19428,7 +19426,7 @@
         <v>38.709366799999998</v>
       </c>
       <c r="K226">
-        <v>140.55477070000001</v>
+        <v>140.55487070000001</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.4">
@@ -21728,10 +21726,10 @@
         <v>766</v>
       </c>
       <c r="J305">
-        <v>38.927521900000002</v>
+        <v>38.928881254419998</v>
       </c>
       <c r="K305">
-        <v>139.86299109999999</v>
+        <v>139.86184996858</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.4">
@@ -21757,10 +21755,10 @@
         <v>766</v>
       </c>
       <c r="J306">
-        <v>38.927521900000002</v>
+        <v>38.9284604228083</v>
       </c>
       <c r="K306">
-        <v>139.86299109999999</v>
+        <v>139.86031977777799</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.4">
@@ -23960,10 +23958,10 @@
         <v>766</v>
       </c>
       <c r="J380">
-        <v>38.856518899999998</v>
+        <v>38.912314077535598</v>
       </c>
       <c r="K380">
-        <v>139.95808510000001</v>
+        <v>139.83809272325499</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.4">
@@ -28733,10 +28731,10 @@
         <v>1486</v>
       </c>
       <c r="J542">
-        <v>38.762267000000001</v>
+        <v>38.761973867662803</v>
       </c>
       <c r="K542">
-        <v>140.3021718</v>
+        <v>140.302493113097</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.4">
@@ -34137,10 +34135,10 @@
         <v>2125</v>
       </c>
       <c r="J727">
-        <v>38.108705100000002</v>
+        <v>38.110654866788302</v>
       </c>
       <c r="K727">
-        <v>140.0351545</v>
+        <v>140.034527459207</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.4">
@@ -34166,10 +34164,10 @@
         <v>2125</v>
       </c>
       <c r="J728">
-        <v>38.108705100000002</v>
+        <v>38.111575084979997</v>
       </c>
       <c r="K728">
-        <v>140.0351545</v>
+        <v>140.035595385779</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.4">
@@ -34253,10 +34251,10 @@
         <v>2125</v>
       </c>
       <c r="J731">
-        <v>38.108705100000002</v>
+        <v>38.110923611506202</v>
       </c>
       <c r="K731">
-        <v>140.0351545</v>
+        <v>140.03580178166399</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.4">
@@ -34282,10 +34280,10 @@
         <v>2125</v>
       </c>
       <c r="J732">
-        <v>38.108705100000002</v>
+        <v>38.1093934940195</v>
       </c>
       <c r="K732">
-        <v>140.0351545</v>
+        <v>140.03575425488501</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.4">
@@ -34311,10 +34309,10 @@
         <v>2125</v>
       </c>
       <c r="J733">
-        <v>38.108705100000002</v>
+        <v>38.108811293874801</v>
       </c>
       <c r="K733">
-        <v>140.0351545</v>
+        <v>140.03582529838701</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.4">
@@ -34781,10 +34779,10 @@
         <v>2125</v>
       </c>
       <c r="J749">
-        <v>38.104415799999998</v>
+        <v>38.105889761567902</v>
       </c>
       <c r="K749">
-        <v>140.03590349999999</v>
+        <v>140.03767188150599</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.4">
@@ -34839,10 +34837,10 @@
         <v>2125</v>
       </c>
       <c r="J751">
-        <v>38.104415799999998</v>
+        <v>38.105128541989799</v>
       </c>
       <c r="K751">
-        <v>140.03590349999999</v>
+        <v>140.03850699986501</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.4">
@@ -37577,7 +37575,7 @@
         <v>38.670345400000002</v>
       </c>
       <c r="K845">
-        <v>139.84516410000001</v>
+        <v>139.84526410000001</v>
       </c>
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.4">
@@ -38711,7 +38709,7 @@
         <v>38.726121599999999</v>
       </c>
       <c r="K884">
-        <v>139.82853069999999</v>
+        <v>139.82863069999999</v>
       </c>
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.4">
@@ -39201,10 +39199,10 @@
         <v>2264</v>
       </c>
       <c r="J901">
-        <v>38.724582900000001</v>
+        <v>38.729237022879403</v>
       </c>
       <c r="K901">
-        <v>139.82292870000001</v>
+        <v>139.831647640114</v>
       </c>
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.4">
@@ -39375,10 +39373,10 @@
         <v>2264</v>
       </c>
       <c r="J907">
-        <v>38.724582900000001</v>
+        <v>38.728633829276902</v>
       </c>
       <c r="K907">
-        <v>139.82292870000001</v>
+        <v>139.83219077609101</v>
       </c>
     </row>
     <row r="908" spans="1:11" x14ac:dyDescent="0.4">
@@ -39636,10 +39634,10 @@
         <v>2264</v>
       </c>
       <c r="J916">
-        <v>38.724582900000001</v>
+        <v>38.726689047523401</v>
       </c>
       <c r="K916">
-        <v>139.82292870000001</v>
+        <v>139.83266165594301</v>
       </c>
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.4">
@@ -39752,10 +39750,10 @@
         <v>2264</v>
       </c>
       <c r="J920">
-        <v>38.724582900000001</v>
+        <v>38.7260069010607</v>
       </c>
       <c r="K920">
-        <v>139.82292870000001</v>
+        <v>139.83225553249099</v>
       </c>
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.4">
@@ -39810,10 +39808,10 @@
         <v>2264</v>
       </c>
       <c r="J922">
-        <v>38.724582900000001</v>
+        <v>38.725585485956699</v>
       </c>
       <c r="K922">
-        <v>139.82292870000001</v>
+        <v>139.832066242709</v>
       </c>
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.4">
@@ -39868,10 +39866,10 @@
         <v>2264</v>
       </c>
       <c r="J924">
-        <v>38.724582900000001</v>
+        <v>38.723756900375299</v>
       </c>
       <c r="K924">
-        <v>139.82292870000001</v>
+        <v>139.82467839408901</v>
       </c>
     </row>
     <row r="925" spans="1:11" x14ac:dyDescent="0.4">
@@ -40013,10 +40011,10 @@
         <v>2264</v>
       </c>
       <c r="J929">
-        <v>38.724582900000001</v>
+        <v>38.724651172174603</v>
       </c>
       <c r="K929">
-        <v>139.82292870000001</v>
+        <v>139.831459939745</v>
       </c>
     </row>
     <row r="930" spans="1:11" x14ac:dyDescent="0.4">
@@ -40100,10 +40098,10 @@
         <v>2264</v>
       </c>
       <c r="J932">
-        <v>38.724582900000001</v>
+        <v>38.725077227313001</v>
       </c>
       <c r="K932">
-        <v>139.82292870000001</v>
+        <v>139.830968207502</v>
       </c>
     </row>
     <row r="933" spans="1:11" x14ac:dyDescent="0.4">
@@ -40132,10 +40130,10 @@
         <v>2264</v>
       </c>
       <c r="J933">
-        <v>38.724582900000001</v>
+        <v>38.723422679997498</v>
       </c>
       <c r="K933">
-        <v>139.82292870000001</v>
+        <v>139.83066357475099</v>
       </c>
     </row>
     <row r="934" spans="1:11" x14ac:dyDescent="0.4">
@@ -40579,10 +40577,10 @@
         <v>2264</v>
       </c>
       <c r="J948">
-        <v>38.739108999999999</v>
+        <v>38.739247079312698</v>
       </c>
       <c r="K948">
-        <v>139.8366542</v>
+        <v>139.83614458019099</v>
       </c>
     </row>
     <row r="949" spans="1:11" x14ac:dyDescent="0.4">
@@ -40611,10 +40609,10 @@
         <v>2264</v>
       </c>
       <c r="J949">
-        <v>38.739108999999999</v>
+        <v>38.739191432756797</v>
       </c>
       <c r="K949">
-        <v>139.8366542</v>
+        <v>139.83682702770099</v>
       </c>
     </row>
     <row r="950" spans="1:11" x14ac:dyDescent="0.4">
@@ -41891,7 +41889,7 @@
         <v>38.354729800000001</v>
       </c>
       <c r="K992">
-        <v>140.38863979999999</v>
+        <v>140.3887398</v>
       </c>
     </row>
     <row r="993" spans="1:11" x14ac:dyDescent="0.4">
@@ -42062,10 +42060,10 @@
         <v>2863</v>
       </c>
       <c r="J998">
-        <v>38.355368800000001</v>
+        <v>38.354808497278</v>
       </c>
       <c r="K998">
-        <v>140.3863771</v>
+        <v>140.384203916258</v>
       </c>
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.4">
@@ -42091,10 +42089,10 @@
         <v>2863</v>
       </c>
       <c r="J999">
-        <v>38.355368800000001</v>
+        <v>38.358386616756803</v>
       </c>
       <c r="K999">
-        <v>140.3863771</v>
+        <v>140.385596111843</v>
       </c>
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.4">
@@ -42120,10 +42118,10 @@
         <v>2863</v>
       </c>
       <c r="J1000">
-        <v>38.355368800000001</v>
+        <v>38.353611644667303</v>
       </c>
       <c r="K1000">
-        <v>140.3863771</v>
+        <v>140.387275951753</v>
       </c>
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.4">
@@ -42674,10 +42672,10 @@
         <v>2863</v>
       </c>
       <c r="J1019">
-        <v>38.355757599999997</v>
+        <v>38.359283936797702</v>
       </c>
       <c r="K1019">
-        <v>140.38018159999999</v>
+        <v>140.37654872533699</v>
       </c>
     </row>
     <row r="1020" spans="1:11" x14ac:dyDescent="0.4">
@@ -42703,10 +42701,10 @@
         <v>2863</v>
       </c>
       <c r="J1020">
-        <v>38.355757599999997</v>
+        <v>38.356802068925496</v>
       </c>
       <c r="K1020">
-        <v>140.38018159999999</v>
+        <v>140.37864527492599</v>
       </c>
     </row>
     <row r="1021" spans="1:11" x14ac:dyDescent="0.4">
@@ -42732,10 +42730,10 @@
         <v>2863</v>
       </c>
       <c r="J1021">
-        <v>38.355757599999997</v>
+        <v>38.355443231959597</v>
       </c>
       <c r="K1021">
-        <v>140.38018159999999</v>
+        <v>140.38145178768599</v>
       </c>
     </row>
     <row r="1022" spans="1:11" x14ac:dyDescent="0.4">
@@ -42761,10 +42759,10 @@
         <v>2863</v>
       </c>
       <c r="J1022">
-        <v>38.355757599999997</v>
+        <v>38.353690414702399</v>
       </c>
       <c r="K1022">
-        <v>140.38018159999999</v>
+        <v>140.38323717997801</v>
       </c>
     </row>
     <row r="1023" spans="1:11" x14ac:dyDescent="0.4">
@@ -46696,10 +46694,10 @@
         <v>3268</v>
       </c>
       <c r="J1155">
-        <v>38.048153999999997</v>
+        <v>38.048132683326699</v>
       </c>
       <c r="K1155">
-        <v>140.1678771</v>
+        <v>140.167853403496</v>
       </c>
     </row>
     <row r="1156" spans="1:11" x14ac:dyDescent="0.4">
